--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Wnt2-Fzd3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Wnt2-Fzd3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -83,9 +86,6 @@
   </si>
   <si>
     <t>Fzd3</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>2.520808</v>
+        <v>0.01070233333333333</v>
       </c>
       <c r="H2">
-        <v>7.562424</v>
+        <v>0.032107</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.004227647500550067</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.004227647500550067</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.265744</v>
+        <v>0.162165</v>
       </c>
       <c r="N2">
-        <v>0.7972319999999999</v>
+        <v>0.486495</v>
       </c>
       <c r="O2">
-        <v>0.1034864391735229</v>
+        <v>0.1006291402646046</v>
       </c>
       <c r="P2">
-        <v>0.1034864391735229</v>
+        <v>0.1006291402646046</v>
       </c>
       <c r="Q2">
-        <v>0.669889601152</v>
+        <v>0.001735543885</v>
       </c>
       <c r="R2">
-        <v>6.029006410368</v>
+        <v>0.015619894965</v>
       </c>
       <c r="S2">
-        <v>0.1034864391735229</v>
+        <v>0.0004254245333221576</v>
       </c>
       <c r="T2">
-        <v>0.1034864391735229</v>
+        <v>0.0004254245333221577</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>2.520808</v>
+        <v>0.01070233333333333</v>
       </c>
       <c r="H3">
-        <v>7.562424</v>
+        <v>0.032107</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.004227647500550067</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.004227647500550067</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>0.922749</v>
       </c>
       <c r="O3">
-        <v>0.1197794472135201</v>
+        <v>0.1908661724170313</v>
       </c>
       <c r="P3">
-        <v>0.1197794472135201</v>
+        <v>0.1908661724170313</v>
       </c>
       <c r="Q3">
-        <v>0.775357687064</v>
+        <v>0.003291855793666666</v>
       </c>
       <c r="R3">
-        <v>6.978219183576</v>
+        <v>0.029626702143</v>
       </c>
       <c r="S3">
-        <v>0.1197794472135201</v>
+        <v>0.0008069148967584204</v>
       </c>
       <c r="T3">
-        <v>0.1197794472135201</v>
+        <v>0.0008069148967584205</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,247 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
+        <v>0.01070233333333333</v>
+      </c>
+      <c r="H4">
+        <v>0.032107</v>
+      </c>
+      <c r="I4">
+        <v>0.004227647500550067</v>
+      </c>
+      <c r="J4">
+        <v>0.004227647500550067</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1.141763333333333</v>
+      </c>
+      <c r="N4">
+        <v>3.42529</v>
+      </c>
+      <c r="O4">
+        <v>0.7085046873183641</v>
+      </c>
+      <c r="P4">
+        <v>0.7085046873183641</v>
+      </c>
+      <c r="Q4">
+        <v>0.01221953178111111</v>
+      </c>
+      <c r="R4">
+        <v>0.10997578603</v>
+      </c>
+      <c r="S4">
+        <v>0.002995308070469489</v>
+      </c>
+      <c r="T4">
+        <v>0.002995308070469489</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
         <v>2.520808</v>
       </c>
-      <c r="H4">
+      <c r="H5">
         <v>7.562424</v>
       </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1.994584333333333</v>
-      </c>
-      <c r="N4">
-        <v>5.983752999999999</v>
-      </c>
-      <c r="O4">
-        <v>0.7767341136129571</v>
-      </c>
-      <c r="P4">
-        <v>0.7767341136129571</v>
-      </c>
-      <c r="Q4">
-        <v>5.027964144141333</v>
-      </c>
-      <c r="R4">
-        <v>45.251677297272</v>
-      </c>
-      <c r="S4">
-        <v>0.7767341136129571</v>
-      </c>
-      <c r="T4">
-        <v>0.7767341136129571</v>
+      <c r="I5">
+        <v>0.99577235249945</v>
+      </c>
+      <c r="J5">
+        <v>0.99577235249945</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.162165</v>
+      </c>
+      <c r="N5">
+        <v>0.486495</v>
+      </c>
+      <c r="O5">
+        <v>0.1006291402646046</v>
+      </c>
+      <c r="P5">
+        <v>0.1006291402646046</v>
+      </c>
+      <c r="Q5">
+        <v>0.40878682932</v>
+      </c>
+      <c r="R5">
+        <v>3.67908146388</v>
+      </c>
+      <c r="S5">
+        <v>0.1002037157312824</v>
+      </c>
+      <c r="T5">
+        <v>0.1002037157312824</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2.520808</v>
+      </c>
+      <c r="H6">
+        <v>7.562424</v>
+      </c>
+      <c r="I6">
+        <v>0.99577235249945</v>
+      </c>
+      <c r="J6">
+        <v>0.99577235249945</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.307583</v>
+      </c>
+      <c r="N6">
+        <v>0.922749</v>
+      </c>
+      <c r="O6">
+        <v>0.1908661724170313</v>
+      </c>
+      <c r="P6">
+        <v>0.1908661724170313</v>
+      </c>
+      <c r="Q6">
+        <v>0.775357687064</v>
+      </c>
+      <c r="R6">
+        <v>6.978219183576</v>
+      </c>
+      <c r="S6">
+        <v>0.1900592575202729</v>
+      </c>
+      <c r="T6">
+        <v>0.1900592575202729</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.520808</v>
+      </c>
+      <c r="H7">
+        <v>7.562424</v>
+      </c>
+      <c r="I7">
+        <v>0.99577235249945</v>
+      </c>
+      <c r="J7">
+        <v>0.99577235249945</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.141763333333333</v>
+      </c>
+      <c r="N7">
+        <v>3.42529</v>
+      </c>
+      <c r="O7">
+        <v>0.7085046873183641</v>
+      </c>
+      <c r="P7">
+        <v>0.7085046873183641</v>
+      </c>
+      <c r="Q7">
+        <v>2.878166144773334</v>
+      </c>
+      <c r="R7">
+        <v>25.90349530296</v>
+      </c>
+      <c r="S7">
+        <v>0.7055093792478947</v>
+      </c>
+      <c r="T7">
+        <v>0.7055093792478947</v>
       </c>
     </row>
   </sheetData>
